--- a/templates/tmp.xlsx
+++ b/templates/tmp.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>{{year}}</t>
   </si>
@@ -130,10 +130,7 @@
     <t>швидкість вітру, м/с</t>
   </si>
   <si>
-    <t>{{Station.name}}</t>
-  </si>
-  <si>
-    <t>  </t>
+    <t>{{station}}</t>
   </si>
   <si>
     <t>Дата сходу снігу: {{annual.snow_melting}}</t>
@@ -148,37 +145,364 @@
     <t>Дата закінчення спостережень: {{annual.observation_end_g}}</t>
   </si>
   <si>
-    <t>{{tb:annual.monthes.name}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.index}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.vapour_2}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.temp_2}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.press_2}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.temp_a}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.part_press}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.wind}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.soil_temp}}</t>
-  </si>
-  <si>
-    <t>{{tb:annual.monthes.d.falls}}</t>
-  </si>
-  <si>
-    <t>м-ць</t>
+    <t>Січень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.0.falls}}</t>
+  </si>
+  <si>
+    <t>Лютий</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.1.falls}}</t>
+  </si>
+  <si>
+    <t>Березень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.2.falls}}</t>
+  </si>
+  <si>
+    <t>Квітень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.3.falls}}</t>
+  </si>
+  <si>
+    <t>Травень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.4.falls}}</t>
+  </si>
+  <si>
+    <t>Червень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.5.falls}}</t>
+  </si>
+  <si>
+    <t>Липень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.6.falls}}</t>
+  </si>
+  <si>
+    <t>Серпень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.7.falls}}</t>
+  </si>
+  <si>
+    <t>Вересень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.8.falls}}</t>
+  </si>
+  <si>
+    <t>Жовтень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.9.falls}}</t>
+  </si>
+  <si>
+    <t>Листопад</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.10.falls}}</t>
+  </si>
+  <si>
+    <t>Грудень</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.index}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.vapour_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.temp_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.press_2}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.temp_a}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.part_press}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.wind}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.soil_temp}}</t>
+  </si>
+  <si>
+    <t>{{tb:annual.monthes.11.falls}}</t>
   </si>
 </sst>
 </file>
@@ -476,11 +800,11 @@
   </sheetPr>
   <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
@@ -491,9 +815,10 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9959514170041"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1417004048583"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +834,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,7 +937,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>1</v>
       </c>
@@ -665,10 +990,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
-      </c>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -678,37 +1001,37 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" s="10" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -719,9 +1042,9 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -732,114 +1055,511 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="15" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" s="10" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17" t="e">
-        <f aca="false">(B18+B17+B18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="17" t="e">
-        <f aca="false">(C18+C17+C18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="15" t="e">
-        <f aca="false">(D18+D17+D18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E19" s="17" t="e">
-        <f aca="false">(E18+E17+E18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="17" t="e">
-        <f aca="false">(F18+F17+F18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="17" t="e">
-        <f aca="false">(G18+G17+G18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="15" t="e">
-        <f aca="false">(H18+H17+H18)/3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="15" t="e">
-        <f aca="false">I18+I17+I18</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B22" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" customFormat="false" ht="52.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="34">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -863,10 +1583,21 @@
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A51:I51"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.984027777777778" right="0.39375" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="74" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -886,6 +1617,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -909,6 +1643,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/templates/tmp.xlsx
+++ b/templates/tmp.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -64,7 +63,7 @@
     <t>{{station}}</t>
   </si>
   <si>
-    <t>Дата сходу снігу: </t>
+    <t>Дата сходу снігу:</t>
   </si>
   <si>
     <t>{{snow_melting}}</t>
@@ -73,10 +72,10 @@
     <t>Дата замерзання води:</t>
   </si>
   <si>
-    <t> {{water_freezing}}</t>
-  </si>
-  <si>
-    <t>Дата початку спостережень: </t>
+    <t>{{water_freezing}}</t>
+  </si>
+  <si>
+    <t>Дата початку спостережень:</t>
   </si>
   <si>
     <t>{{observation_begin_g}}</t>
@@ -451,33 +450,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -494,7 +477,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -502,7 +485,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -510,7 +493,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -518,7 +501,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -535,14 +518,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3C3C3C"/>
       </left>
@@ -558,109 +541,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -719,90 +662,385 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3C3C3C"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="13.28515625"/>
+    <col min="2" max="2" width="13.7109375"/>
+    <col min="3" max="3" width="13"/>
+    <col min="4" max="4" width="15.140625"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125"/>
+    <col min="7" max="7" width="14"/>
+    <col min="8" max="8" width="12.140625"/>
+    <col min="9" max="9" width="10.28515625"/>
+    <col min="10" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="21.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -823,665 +1061,648 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="47.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="13">
         <v>5</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="13">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="13">
         <v>7</v>
       </c>
-      <c r="H8" s="7" t="n">
+      <c r="H8" s="13">
         <v>8</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" s="10" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:13" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="14" t="s">
+    <row r="14" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="s">
+    <row r="17" spans="1:9" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" s="10" customFormat="true" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" s="10" customFormat="true" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+    <row r="19" spans="1:9" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="14" t="s">
+    <row r="21" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="14" t="s">
+    <row r="23" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="14" t="s">
+    <row r="25" spans="1:9" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="14" t="s">
+    <row r="27" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" s="10" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="14" t="s">
+    <row r="29" spans="1:9" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="14" t="s">
+    <row r="31" spans="1:9" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="14" t="s">
+    <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E33" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="14" t="s">
+    <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="E35" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="14" t="s">
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" s="10" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -1490,73 +1711,40 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:I14"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.984027777777778" right="0.39375" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.98402777777777795" right="0.39374999999999999" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/templates/tmp.xlsx
+++ b/templates/tmp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -546,30 +546,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -596,6 +572,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,713 +988,721 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="5">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="5">
         <v>7</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="5">
         <v>8</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="15" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="15" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="2" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="15" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="17" t="s">
+      <c r="I18" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="E33" s="16" t="s">
+    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="E35" s="16" t="s">
+    <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" s="14" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="9" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A14:I14"/>
@@ -1703,14 +1711,6 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.98402777777777795" right="0.39374999999999999" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/templates/tmp.xlsx
+++ b/templates/tmp.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -568,10 +568,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -589,13 +595,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,41 +994,41 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1041,28 +1042,28 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1081,8 +1082,8 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1114,101 +1115,101 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="8" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1233,7 +1234,7 @@
       <c r="F16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -1244,17 +1245,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1275,7 +1276,7 @@
       <c r="F18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -1286,17 +1287,17 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1317,7 +1318,7 @@
       <c r="F20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="9" t="s">
@@ -1328,17 +1329,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" s="8" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -1359,7 +1360,7 @@
       <c r="F22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -1370,17 +1371,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="8" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1401,7 +1402,7 @@
       <c r="F24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -1412,17 +1413,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="8" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1443,7 +1444,7 @@
       <c r="F26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>80</v>
       </c>
       <c r="H26" s="9" t="s">
@@ -1454,17 +1455,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="8" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1485,7 +1486,7 @@
       <c r="F28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="9" t="s">
@@ -1496,17 +1497,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="8" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1527,7 +1528,7 @@
       <c r="F30" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="9" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="9" t="s">
@@ -1538,17 +1539,17 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="8" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -1569,7 +1570,7 @@
       <c r="F32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H32" s="9" t="s">
@@ -1580,13 +1581,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E33" s="8" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -1607,7 +1612,7 @@
       <c r="F34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="9" t="s">
         <v>120</v>
       </c>
       <c r="H34" s="9" t="s">
@@ -1618,13 +1623,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="8" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -1645,7 +1654,7 @@
       <c r="F36" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H36" s="9" t="s">
@@ -1656,13 +1665,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="8" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -1683,7 +1696,7 @@
       <c r="F38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>140</v>
       </c>
       <c r="H38" s="9" t="s">
@@ -1695,6 +1708,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -1703,14 +1724,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.98402777777777795" right="0.39374999999999999" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/templates/tmp.xlsx
+++ b/templates/tmp.xlsx
@@ -571,13 +571,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,8 +590,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,41 +994,41 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1042,28 +1042,28 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="21.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1082,8 +1082,8 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -1115,101 +1115,101 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1245,17 +1245,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1287,17 +1287,17 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1329,17 +1329,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -1371,17 +1371,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -1413,17 +1413,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -1455,17 +1455,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1497,17 +1497,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1539,17 +1539,17 @@
       </c>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -1581,17 +1581,17 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -1623,17 +1623,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -1665,17 +1665,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -1708,6 +1708,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A14:I14"/>
@@ -1716,14 +1724,6 @@
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <pageMargins left="0.98402777777777795" right="0.39374999999999999" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
